--- a/Finflux Automation Excels/Client/4945-Do-Repayment-After-the-Maturity-Date.xlsx
+++ b/Finflux Automation Excels/Client/4945-Do-Repayment-After-the-Maturity-Date.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>CenterVillageName</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>ReceiptNumber</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -1403,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,9 +1444,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1454,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,9 +1503,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1505,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,9 +1562,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>76543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
